--- a/RCWA/Rebuild/layers.xlsx
+++ b/RCWA/Rebuild/layers.xlsx
@@ -384,8 +384,8 @@
       <c r="G2" s="1">
         <v>0.005</v>
       </c>
-      <c r="H2" s="2">
-        <v>0.0</v>
+      <c r="H2" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -410,8 +410,8 @@
       <c r="G3" s="1">
         <v>0.005</v>
       </c>
-      <c r="H3" s="2">
-        <v>0.0</v>
+      <c r="H3" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -436,8 +436,8 @@
       <c r="G4" s="1">
         <v>0.005</v>
       </c>
-      <c r="H4" s="2">
-        <v>0.0</v>
+      <c r="H4" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -445,13 +445,13 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>500.0</v>
+        <v>300.0</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="D5" s="3">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" s="2">
         <v>0.0</v>
@@ -462,8 +462,8 @@
       <c r="G5" s="1">
         <v>0.005</v>
       </c>
-      <c r="H5" s="2">
-        <v>0.0</v>
+      <c r="H5" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -488,8 +488,8 @@
       <c r="G6" s="1">
         <v>0.005</v>
       </c>
-      <c r="H6" s="2">
-        <v>0.0</v>
+      <c r="H6" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -514,8 +514,8 @@
       <c r="G7" s="1">
         <v>0.005</v>
       </c>
-      <c r="H7" s="2">
-        <v>0.0</v>
+      <c r="H7" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -540,8 +540,8 @@
       <c r="G8" s="1">
         <v>0.005</v>
       </c>
-      <c r="H8" s="2">
-        <v>0.0</v>
+      <c r="H8" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -552,10 +552,10 @@
         <v>250.0</v>
       </c>
       <c r="C9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>40.0</v>
       </c>
       <c r="E9" s="2">
         <v>0.0</v>
@@ -566,8 +566,8 @@
       <c r="G9" s="1">
         <v>0.005</v>
       </c>
-      <c r="H9" s="2">
-        <v>0.0</v>
+      <c r="H9" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -592,8 +592,8 @@
       <c r="G10" s="1">
         <v>0.005</v>
       </c>
-      <c r="H10" s="2">
-        <v>0.0</v>
+      <c r="H10" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">

--- a/RCWA/Rebuild/layers.xlsx
+++ b/RCWA/Rebuild/layers.xlsx
@@ -1,18 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sander/Desktop/AMS/RCWA/Rebuild/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="19">
   <si>
     <t>material</t>
   </si>
@@ -56,34 +72,45 @@
     <t>Al03GaAs</t>
   </si>
   <si>
+    <t>Ag</t>
+  </si>
+  <si>
     <t>GaP</t>
   </si>
   <si>
-    <t>Ag</t>
+    <t>InGaP, GaP, Ag</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>1,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -93,47 +120,47 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -323,20 +350,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -361,260 +393,264 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>94.0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.0</v>
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H2" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.0</v>
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H3" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>25.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.0</v>
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H4" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>300.0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.0</v>
+        <v>300</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H5" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>110.0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.0</v>
+        <v>110</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>130.0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.0</v>
+        <v>130</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H7" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.0</v>
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H8" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>600</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
-        <v>250.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>40.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.005</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B10" s="1">
-        <v>3000.0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.0</v>
+        <v>3000</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="3">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,241 +676,241 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H2" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H3" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H4" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="C5" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H5" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>110.0</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H6" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="C7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H7" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H8" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>250</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="1">
-        <v>250.0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.005</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="B10" s="1">
-        <v>3000.0</v>
+        <v>3000</v>
       </c>
       <c r="C10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RCWA/Rebuild/layers.xlsx
+++ b/RCWA/Rebuild/layers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,7 @@
     <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Sheet5" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Sheet6" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="23">
   <si>
     <t xml:space="preserve">material</t>
   </si>
@@ -217,10 +218,10 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="141" zoomScaleNormal="141" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
   </cols>
@@ -388,7 +389,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>305</v>
+        <v>230</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
@@ -486,7 +487,7 @@
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -754,9 +755,9 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,7 +1016,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -1273,7 +1274,7 @@
       <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7421875" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.76"/>
   </cols>
@@ -1530,11 +1531,11 @@
   </sheetPr>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.86"/>
   </cols>
@@ -1772,6 +1773,225 @@
       <c r="H9" s="4" t="n">
         <v>1</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.44"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
